--- a/data_input/analytics/Balance planes.xlsx
+++ b/data_input/analytics/Balance planes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\budnik_an\cube linux\cube\data_input\analytics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\budnik_an\cube_linux\cube\data_input\analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B821C5-97BA-479D-A382-EAF00A600E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17990"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -158,9 +159,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -415,16 +416,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -490,7 +491,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -767,33 +768,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="3" max="3" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.36328125" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" customWidth="1"/>
-    <col min="13" max="17" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" customWidth="1"/>
+    <col min="13" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
-    <col min="19" max="19" width="15.36328125" customWidth="1"/>
-    <col min="20" max="20" width="21.453125" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" customWidth="1"/>
+    <col min="20" max="20" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
@@ -855,7 +857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>25</v>
       </c>
@@ -913,7 +915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>26</v>
       </c>
@@ -947,7 +949,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
@@ -979,7 +981,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>28</v>
       </c>
@@ -996,50 +998,22 @@
         <v>2</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>17094</v>
-      </c>
-      <c r="P5" s="3">
-        <v>70482</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>64</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>41</v>
-      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="28"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>29</v>
       </c>
@@ -1065,7 +1039,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>30</v>
       </c>
@@ -1082,22 +1056,50 @@
         <v>2</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="1"/>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>17094</v>
+      </c>
+      <c r="P7" s="3">
+        <v>70482</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>64</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T7" s="28" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>31</v>
       </c>
@@ -1123,17 +1125,17 @@
       <c r="S8" s="10"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="H14" s="12"/>
